--- a/Excel/bullet.xlsx
+++ b/Excel/bullet.xlsx
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>TypeID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -68,23 +68,47 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>Bullet/Projectiles/xiaohei_binjian_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bullet/Projectiles/xiaohei_binjian_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bullet/Projectiles/fengxing_attack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bullet/Projectiles/fengxing_skill1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>Bullet/Projectiles/xiaohei_attack</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Bullet/Projectiles/xiaohei_binjian_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Bullet/Projectiles/xiaohei_binjian_2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Bullet/Projectiles/fengxing_attack</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Bullet/Projectiles/fengxing_skill1</t>
+    <t>Bullet/Projectiles/pake_attack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bullet/Projectiles/pake_skill1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bullet/Projectiles/yingmo_attack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bullet/Projectiles/yingmo_skill1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bullet/Projectiles/yingmo_skill2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bullet/Projectiles/huoqiang_attack</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -449,10 +473,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -477,7 +501,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -499,7 +523,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C4">
         <v>2</v>
@@ -510,7 +534,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C5">
         <v>10</v>
@@ -521,7 +545,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -532,10 +556,76 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C7">
         <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/bullet.xlsx
+++ b/Excel/bullet.xlsx
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>TypeID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -109,6 +109,38 @@
   </si>
   <si>
     <t>Bullet/Projectiles/huoqiang_attack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bullet/Projectiles/huoqiang_skill1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bullet/Projectiles/yueqi_attack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bullet/Projectiles/dulong_attack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bullet/Projectiles/dulong_skill1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bullet/Projectiles/dulong_skill2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bullet/Projectiles/lanmao_attack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bullet/Projectiles/lanmao_skill1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bullet/Projectiles/lanmao_skill2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -473,10 +505,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -628,6 +660,94 @@
         <v>1</v>
       </c>
     </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>22</v>
+      </c>
+      <c r="C21">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel/bullet.xlsx
+++ b/Excel/bullet.xlsx
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>TypeID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -141,6 +141,10 @@
   </si>
   <si>
     <t>Bullet/Projectiles/lanmao_skill2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bullet/Projectiles/jianshen_skill2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -505,10 +509,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -748,6 +752,17 @@
         <v>2</v>
       </c>
     </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>23</v>
+      </c>
+      <c r="C22">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel/bullet.xlsx
+++ b/Excel/bullet.xlsx
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>TypeID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -144,7 +144,43 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>Buff/zhiliaobang_halo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Buff/xukong_skill1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>Bullet/Projectiles/jianshen_skill2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bullet/Projectiles/xiaonajia_skill1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bullet/Projectiles/paipaixiong_skill1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Buff/lanmao_skill1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Buff/dulong_skill2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Buff/xuemo_skill2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bullet/Projectiles/xuemo_skill2_bullet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bullet/Projectiles/yueqi_skill1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -509,10 +545,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -757,10 +793,109 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C22">
         <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A23">
+        <v>1001</v>
+      </c>
+      <c r="B23" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A24">
+        <v>1004</v>
+      </c>
+      <c r="B24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A25">
+        <v>22</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A26">
+        <v>23</v>
+      </c>
+      <c r="B26" t="s">
+        <v>27</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A27">
+        <v>1020</v>
+      </c>
+      <c r="B27" t="s">
+        <v>28</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A28">
+        <v>1019</v>
+      </c>
+      <c r="B28" t="s">
+        <v>29</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A29">
+        <v>1006</v>
+      </c>
+      <c r="B29" t="s">
+        <v>30</v>
+      </c>
+      <c r="C29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A30">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>31</v>
+      </c>
+      <c r="C30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A31">
+        <v>25</v>
+      </c>
+      <c r="B31" t="s">
+        <v>32</v>
+      </c>
+      <c r="C31">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/bullet.xlsx
+++ b/Excel/bullet.xlsx
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>TypeID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -181,6 +181,10 @@
   </si>
   <si>
     <t>Bullet/Projectiles/yueqi_skill1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bullet/Projectiles/fengxing_skill1_bullet</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -545,10 +549,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C31"/>
+  <dimension ref="A1:C32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -898,6 +902,17 @@
         <v>1</v>
       </c>
     </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A32">
+        <v>26</v>
+      </c>
+      <c r="B32" t="s">
+        <v>33</v>
+      </c>
+      <c r="C32">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel/bullet.xlsx
+++ b/Excel/bullet.xlsx
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
   <si>
     <t>TypeID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -185,6 +185,34 @@
   </si>
   <si>
     <t>Bullet/Projectiles/fengxing_skill1_bullet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bullet/Projectiles/yougui_skill3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bullet/Projectiles/hundun_skill1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bullet/Projectiles/najia_skill2_bullet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Buff/najia_skill4_halo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bullet/Projectiles/fuwang_skill4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Buff/huoqiang_skill1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bullet/Projectiles/fuwang_skill1_bullet</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -549,10 +577,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C32"/>
+  <dimension ref="A1:C39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+      <selection activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -913,6 +941,83 @@
         <v>1</v>
       </c>
     </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A33">
+        <v>27</v>
+      </c>
+      <c r="B33" t="s">
+        <v>34</v>
+      </c>
+      <c r="C33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A34">
+        <v>28</v>
+      </c>
+      <c r="B34" t="s">
+        <v>35</v>
+      </c>
+      <c r="C34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A35">
+        <v>29</v>
+      </c>
+      <c r="B35" t="s">
+        <v>36</v>
+      </c>
+      <c r="C35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A36">
+        <v>1008</v>
+      </c>
+      <c r="B36" t="s">
+        <v>37</v>
+      </c>
+      <c r="C36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A37">
+        <v>30</v>
+      </c>
+      <c r="B37" t="s">
+        <v>38</v>
+      </c>
+      <c r="C37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A38">
+        <v>1015</v>
+      </c>
+      <c r="B38" t="s">
+        <v>39</v>
+      </c>
+      <c r="C38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A39">
+        <v>31</v>
+      </c>
+      <c r="B39" t="s">
+        <v>40</v>
+      </c>
+      <c r="C39">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel/bullet.xlsx
+++ b/Excel/bullet.xlsx
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
   <si>
     <t>TypeID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -213,6 +213,22 @@
   </si>
   <si>
     <t>Bullet/Projectiles/fuwang_skill1_bullet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bullet/Projectiles/yougui_skill1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Buff/yougui_skill1_halo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Buff/xiaoxiao_skill1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bullet/Projectiles/xiaoxiao_skill3_bullet</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -577,10 +593,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C39"/>
+  <dimension ref="A1:C43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B43" sqref="B43"/>
+      <selection activeCell="B47" sqref="B47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1018,6 +1034,50 @@
         <v>1</v>
       </c>
     </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A40">
+        <v>32</v>
+      </c>
+      <c r="B40" t="s">
+        <v>41</v>
+      </c>
+      <c r="C40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A41">
+        <v>1014</v>
+      </c>
+      <c r="B41" t="s">
+        <v>42</v>
+      </c>
+      <c r="C41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A42">
+        <v>1009</v>
+      </c>
+      <c r="B42" t="s">
+        <v>43</v>
+      </c>
+      <c r="C42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A43">
+        <v>33</v>
+      </c>
+      <c r="B43" t="s">
+        <v>44</v>
+      </c>
+      <c r="C43">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel/bullet.xlsx
+++ b/Excel/bullet.xlsx
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t>TypeID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -229,6 +229,10 @@
   </si>
   <si>
     <t>Bullet/Projectiles/xiaoxiao_skill3_bullet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bullet/Projectiles/enemy1_attack</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -593,7 +597,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C43"/>
+  <dimension ref="A1:C44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B47" sqref="B47"/>
@@ -1078,6 +1082,17 @@
         <v>2</v>
       </c>
     </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A44">
+        <v>34</v>
+      </c>
+      <c r="B44" t="s">
+        <v>45</v>
+      </c>
+      <c r="C44">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel/bullet.xlsx
+++ b/Excel/bullet.xlsx
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
   <si>
     <t>TypeID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -233,6 +233,10 @@
   </si>
   <si>
     <t>Bullet/Projectiles/enemy1_attack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Buff/doorway</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -597,10 +601,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C44"/>
+  <dimension ref="A1:C45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B47" sqref="B47"/>
+      <selection activeCell="B48" sqref="B48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1093,6 +1097,17 @@
         <v>1</v>
       </c>
     </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A45">
+        <v>1024</v>
+      </c>
+      <c r="B45" t="s">
+        <v>46</v>
+      </c>
+      <c r="C45">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel/bullet.xlsx
+++ b/Excel/bullet.xlsx
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
   <si>
     <t>TypeID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -237,6 +237,30 @@
   </si>
   <si>
     <t>Buff/doorway</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bullet/Projectiles/meiken_pro</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bullet/Projectiles/dagen_pro</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bullet/Projectiles/mifa_pro</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bullet/Projectiles/shuaxin_pro</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bullet/Projectiles/LifeProjectileNormal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bullet/Projectiles/xiwa_skill</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -601,10 +625,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C45"/>
+  <dimension ref="A1:C51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B48" sqref="B48"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B55" sqref="B55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1108,6 +1132,72 @@
         <v>1</v>
       </c>
     </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A46">
+        <v>35</v>
+      </c>
+      <c r="B46" t="s">
+        <v>47</v>
+      </c>
+      <c r="C46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A47">
+        <v>36</v>
+      </c>
+      <c r="B47" t="s">
+        <v>48</v>
+      </c>
+      <c r="C47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A48">
+        <v>37</v>
+      </c>
+      <c r="B48" t="s">
+        <v>49</v>
+      </c>
+      <c r="C48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A49">
+        <v>38</v>
+      </c>
+      <c r="B49" t="s">
+        <v>50</v>
+      </c>
+      <c r="C49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A50">
+        <v>39</v>
+      </c>
+      <c r="B50" t="s">
+        <v>51</v>
+      </c>
+      <c r="C50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A51">
+        <v>40</v>
+      </c>
+      <c r="B51" t="s">
+        <v>52</v>
+      </c>
+      <c r="C51">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel/bullet.xlsx
+++ b/Excel/bullet.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="97">
   <si>
     <t>TypeID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -261,6 +261,182 @@
   </si>
   <si>
     <t>Bullet/Projectiles/xiwa_skill</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bullet/Projectiles/jianshen_attack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bullet/Projectiles/jianshen_baoji</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bullet/Projectiles/jianshen_fengbao</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bullet/Projectiles/jianshen_zhiliao</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bullet/Projectiles/xukong_attack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bullet/Projectiles/xukong_tiao</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bullet/Projectiles/xukong_lockskill</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bullet/Projectiles/xukong_timelock</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bullet/Projectiles/xukong_timewalk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bullet/Projectiles/hundun_attack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bullet/Projectiles/hundun_skill2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bullet/Projectiles/hundun_skill3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bullet/Projectiles/hundun_skill4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bullet/Projectiles/paipaixiong_attack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bullet/Projectiles/paipaixiong_skill2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bullet/Projectiles/paipaixiong_skill4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bullet/Projectiles/xuemo_attack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bullet/Projectiles/xuemo_skill1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bullet/Projectiles/xuemo_skill2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bullet/Projectiles/xuemo_skill4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bullet/Projectiles/xiaonajia_attack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bullet/Projectiles/xiaonajia_fenshen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bullet/Projectiles/xiaonajia_skill4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bullet/Projectiles/xiaoxiao_attack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bullet/Projectiles/xiaoxiao_skill1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bullet/Projectiles/xiaoxiao_skill2_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bullet/Projectiles/xiaoxiao_skill2_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bullet/Projectiles/fengxing_skill4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bullet/Projectiles/fengxing_skill3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bullet/Projectiles/pake_skill2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bullet/Projectiles/pake_skill3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bullet/Projectiles/pake_skill4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bullet/Projectiles/yougui_attack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bullet/Projectiles/yougui_skill4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bullet/Projectiles/yougui_skill5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bullet/Projectiles/huoqiang_liudan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bullet/Projectiles/fuwang_attack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bullet/Projectiles/fuwang_hou</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bullet/Projectiles/fuwang_diandeng</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bullet/Projectiles/yueqi_skill4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bullet/Projectiles/dulong_skill_judu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bullet/Projectiles/lanmao_canying</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bullet/Projectiles/lanmao_la</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bullet/Projectiles/lanmao_canying_1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -625,10 +801,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C51"/>
+  <dimension ref="A1:C106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B55" sqref="B55"/>
+    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="B100" sqref="B100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -876,7 +1052,7 @@
         <v>25</v>
       </c>
       <c r="C22">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.15">
@@ -1198,9 +1374,582 @@
         <v>1</v>
       </c>
     </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A52">
+        <v>41</v>
+      </c>
+      <c r="B52" t="s">
+        <v>53</v>
+      </c>
+      <c r="C52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A53">
+        <v>42</v>
+      </c>
+      <c r="B53" t="s">
+        <v>54</v>
+      </c>
+      <c r="C53">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A54">
+        <v>43</v>
+      </c>
+      <c r="B54" t="s">
+        <v>55</v>
+      </c>
+      <c r="C54">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A55">
+        <v>44</v>
+      </c>
+      <c r="B55" t="s">
+        <v>56</v>
+      </c>
+      <c r="C55">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A56">
+        <v>45</v>
+      </c>
+      <c r="B56" t="s">
+        <v>57</v>
+      </c>
+      <c r="C56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A57">
+        <v>46</v>
+      </c>
+      <c r="B57" t="s">
+        <v>58</v>
+      </c>
+      <c r="C57">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A58">
+        <v>47</v>
+      </c>
+      <c r="B58" t="s">
+        <v>59</v>
+      </c>
+      <c r="C58">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A59">
+        <v>48</v>
+      </c>
+      <c r="B59" t="s">
+        <v>60</v>
+      </c>
+      <c r="C59">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A60">
+        <v>49</v>
+      </c>
+      <c r="B60" t="s">
+        <v>61</v>
+      </c>
+      <c r="C60">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A61">
+        <v>50</v>
+      </c>
+      <c r="B61" t="s">
+        <v>62</v>
+      </c>
+      <c r="C61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A62">
+        <v>51</v>
+      </c>
+      <c r="B62" t="s">
+        <v>63</v>
+      </c>
+      <c r="C62">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A63">
+        <v>52</v>
+      </c>
+      <c r="B63" t="s">
+        <v>64</v>
+      </c>
+      <c r="C63">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A64">
+        <v>53</v>
+      </c>
+      <c r="B64" t="s">
+        <v>65</v>
+      </c>
+      <c r="C64">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A65">
+        <v>54</v>
+      </c>
+      <c r="B65" t="s">
+        <v>66</v>
+      </c>
+      <c r="C65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A66">
+        <v>55</v>
+      </c>
+      <c r="B66" t="s">
+        <v>67</v>
+      </c>
+      <c r="C66">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A67">
+        <v>56</v>
+      </c>
+      <c r="B67" t="s">
+        <v>68</v>
+      </c>
+      <c r="C67">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A68">
+        <v>57</v>
+      </c>
+      <c r="B68" t="s">
+        <v>69</v>
+      </c>
+      <c r="C68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A69">
+        <v>58</v>
+      </c>
+      <c r="B69" t="s">
+        <v>70</v>
+      </c>
+      <c r="C69">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A70">
+        <v>59</v>
+      </c>
+      <c r="B70" t="s">
+        <v>71</v>
+      </c>
+      <c r="C70">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A71">
+        <v>60</v>
+      </c>
+      <c r="B71" t="s">
+        <v>72</v>
+      </c>
+      <c r="C71">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A72">
+        <v>61</v>
+      </c>
+      <c r="B72" t="s">
+        <v>73</v>
+      </c>
+      <c r="C72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A73">
+        <v>62</v>
+      </c>
+      <c r="B73" t="s">
+        <v>74</v>
+      </c>
+      <c r="C73">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A74">
+        <v>63</v>
+      </c>
+      <c r="B74" t="s">
+        <v>75</v>
+      </c>
+      <c r="C74">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A75">
+        <v>64</v>
+      </c>
+      <c r="B75" t="s">
+        <v>76</v>
+      </c>
+      <c r="C75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A76">
+        <v>65</v>
+      </c>
+      <c r="B76" t="s">
+        <v>77</v>
+      </c>
+      <c r="C76">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A77">
+        <v>66</v>
+      </c>
+      <c r="B77" t="s">
+        <v>78</v>
+      </c>
+      <c r="C77">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A78">
+        <v>67</v>
+      </c>
+      <c r="B78" t="s">
+        <v>79</v>
+      </c>
+      <c r="C78">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A79">
+        <v>68</v>
+      </c>
+      <c r="B79" t="s">
+        <v>81</v>
+      </c>
+      <c r="C79">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A80">
+        <v>69</v>
+      </c>
+      <c r="B80" t="s">
+        <v>80</v>
+      </c>
+      <c r="C80">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A81">
+        <v>70</v>
+      </c>
+      <c r="B81" t="s">
+        <v>82</v>
+      </c>
+      <c r="C81">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A82">
+        <v>71</v>
+      </c>
+      <c r="B82" t="s">
+        <v>83</v>
+      </c>
+      <c r="C82">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A83">
+        <v>72</v>
+      </c>
+      <c r="B83" t="s">
+        <v>84</v>
+      </c>
+      <c r="C83">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A84">
+        <v>73</v>
+      </c>
+      <c r="B84" t="s">
+        <v>85</v>
+      </c>
+      <c r="C84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A85">
+        <v>74</v>
+      </c>
+      <c r="B85" t="s">
+        <v>86</v>
+      </c>
+      <c r="C85">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A86">
+        <v>75</v>
+      </c>
+      <c r="B86" t="s">
+        <v>87</v>
+      </c>
+      <c r="C86">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A87">
+        <v>76</v>
+      </c>
+      <c r="B87" t="s">
+        <v>88</v>
+      </c>
+      <c r="C87">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A88">
+        <v>77</v>
+      </c>
+      <c r="B88" t="s">
+        <v>89</v>
+      </c>
+      <c r="C88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A89">
+        <v>78</v>
+      </c>
+      <c r="B89" t="s">
+        <v>90</v>
+      </c>
+      <c r="C89">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A90">
+        <v>79</v>
+      </c>
+      <c r="B90" t="s">
+        <v>91</v>
+      </c>
+      <c r="C90">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A91">
+        <v>80</v>
+      </c>
+      <c r="B91" t="s">
+        <v>92</v>
+      </c>
+      <c r="C91">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A92">
+        <v>81</v>
+      </c>
+      <c r="B92" t="s">
+        <v>93</v>
+      </c>
+      <c r="C92">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A93">
+        <v>82</v>
+      </c>
+      <c r="B93" t="s">
+        <v>94</v>
+      </c>
+      <c r="C93">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A94">
+        <v>83</v>
+      </c>
+      <c r="B94" t="s">
+        <v>95</v>
+      </c>
+      <c r="C94">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A95">
+        <v>84</v>
+      </c>
+      <c r="B95" t="s">
+        <v>96</v>
+      </c>
+      <c r="C95">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A96">
+        <v>85</v>
+      </c>
+      <c r="C96">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A97">
+        <v>86</v>
+      </c>
+      <c r="C97">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A98">
+        <v>87</v>
+      </c>
+      <c r="C98">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A99">
+        <v>88</v>
+      </c>
+      <c r="C99">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A100">
+        <v>89</v>
+      </c>
+      <c r="C100">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A101">
+        <v>90</v>
+      </c>
+      <c r="C101">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A102">
+        <v>91</v>
+      </c>
+      <c r="C102">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A103">
+        <v>92</v>
+      </c>
+      <c r="C103">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A104">
+        <v>93</v>
+      </c>
+      <c r="C104">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A105">
+        <v>94</v>
+      </c>
+      <c r="C105">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A106">
+        <v>95</v>
+      </c>
+      <c r="C106">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Excel/bullet.xlsx
+++ b/Excel/bullet.xlsx
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="122">
   <si>
     <t>TypeID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -437,6 +437,106 @@
   </si>
   <si>
     <t>Bullet/Projectiles/lanmao_canying_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bullet/Projectiles/item/lvzhang</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bullet/Projectiles/item/xiangweixie</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bullet/Projectiles/item/xuanmingdunpai</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bullet/Projectiles/item/xiaoxunzhang</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bullet/Projectiles/item/zhangu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bullet/Projectiles/item/dizi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bullet/Projectiles/item/tuitui</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bullet/Projectiles/item/fenzheng</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bullet/Projectiles/item/fengzhang</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bullet/Projectiles/atuosi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bullet/Projectiles/item/ziyuan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bullet/Projectiles/item/yangdao</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bullet/Projectiles/item/xiaoyunchui</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bullet/Projectiles/item/jingubang</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bullet/Projectiles/item/dayunchui</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bullet/Projectiles/item/tiaozhan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bullet/Projectiles/item/renjia</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bullet/Projectiles/item/bkb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bullet/Projectiles/item/fenshen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bullet/Projectiles/item/xuejingshi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bullet/Projectiles/item/fengkuang</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bullet/Projectiles/xiaodianchui</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bullet/Projectiles/item/sanshi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bullet/Projectiles/item/tiantang</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bullet/Projectiles/item/sadan</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -801,10 +901,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C106"/>
+  <dimension ref="A1:C130"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="B100" sqref="B100"/>
+      <selection activeCell="I107" sqref="I107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1862,6 +1962,9 @@
       <c r="A96">
         <v>85</v>
       </c>
+      <c r="B96" t="s">
+        <v>97</v>
+      </c>
       <c r="C96">
         <v>2</v>
       </c>
@@ -1870,6 +1973,9 @@
       <c r="A97">
         <v>86</v>
       </c>
+      <c r="B97" t="s">
+        <v>98</v>
+      </c>
       <c r="C97">
         <v>2</v>
       </c>
@@ -1878,6 +1984,9 @@
       <c r="A98">
         <v>87</v>
       </c>
+      <c r="B98" t="s">
+        <v>99</v>
+      </c>
       <c r="C98">
         <v>2</v>
       </c>
@@ -1886,6 +1995,9 @@
       <c r="A99">
         <v>88</v>
       </c>
+      <c r="B99" t="s">
+        <v>100</v>
+      </c>
       <c r="C99">
         <v>2</v>
       </c>
@@ -1894,6 +2006,9 @@
       <c r="A100">
         <v>89</v>
       </c>
+      <c r="B100" t="s">
+        <v>101</v>
+      </c>
       <c r="C100">
         <v>2</v>
       </c>
@@ -1902,6 +2017,9 @@
       <c r="A101">
         <v>90</v>
       </c>
+      <c r="B101" t="s">
+        <v>102</v>
+      </c>
       <c r="C101">
         <v>2</v>
       </c>
@@ -1910,6 +2028,9 @@
       <c r="A102">
         <v>91</v>
       </c>
+      <c r="B102" t="s">
+        <v>103</v>
+      </c>
       <c r="C102">
         <v>2</v>
       </c>
@@ -1918,6 +2039,9 @@
       <c r="A103">
         <v>92</v>
       </c>
+      <c r="B103" t="s">
+        <v>104</v>
+      </c>
       <c r="C103">
         <v>2</v>
       </c>
@@ -1926,6 +2050,9 @@
       <c r="A104">
         <v>93</v>
       </c>
+      <c r="B104" t="s">
+        <v>105</v>
+      </c>
       <c r="C104">
         <v>2</v>
       </c>
@@ -1934,6 +2061,9 @@
       <c r="A105">
         <v>94</v>
       </c>
+      <c r="B105" t="s">
+        <v>106</v>
+      </c>
       <c r="C105">
         <v>2</v>
       </c>
@@ -1942,7 +2072,244 @@
       <c r="A106">
         <v>95</v>
       </c>
+      <c r="B106" t="s">
+        <v>107</v>
+      </c>
       <c r="C106">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A107">
+        <v>96</v>
+      </c>
+      <c r="B107" t="s">
+        <v>108</v>
+      </c>
+      <c r="C107">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A108">
+        <v>97</v>
+      </c>
+      <c r="B108" t="s">
+        <v>109</v>
+      </c>
+      <c r="C108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A109">
+        <v>98</v>
+      </c>
+      <c r="B109" t="s">
+        <v>110</v>
+      </c>
+      <c r="C109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A110">
+        <v>99</v>
+      </c>
+      <c r="B110" t="s">
+        <v>111</v>
+      </c>
+      <c r="C110">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A111">
+        <v>100</v>
+      </c>
+      <c r="B111" t="s">
+        <v>112</v>
+      </c>
+      <c r="C111">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A112">
+        <v>101</v>
+      </c>
+      <c r="B112" t="s">
+        <v>113</v>
+      </c>
+      <c r="C112">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A113">
+        <v>102</v>
+      </c>
+      <c r="B113" t="s">
+        <v>114</v>
+      </c>
+      <c r="C113">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A114">
+        <v>103</v>
+      </c>
+      <c r="B114" t="s">
+        <v>115</v>
+      </c>
+      <c r="C114">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A115">
+        <v>104</v>
+      </c>
+      <c r="B115" t="s">
+        <v>116</v>
+      </c>
+      <c r="C115">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A116">
+        <v>105</v>
+      </c>
+      <c r="B116" t="s">
+        <v>117</v>
+      </c>
+      <c r="C116">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A117">
+        <v>106</v>
+      </c>
+      <c r="B117" t="s">
+        <v>118</v>
+      </c>
+      <c r="C117">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A118">
+        <v>107</v>
+      </c>
+      <c r="B118" t="s">
+        <v>119</v>
+      </c>
+      <c r="C118">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A119">
+        <v>108</v>
+      </c>
+      <c r="B119" t="s">
+        <v>120</v>
+      </c>
+      <c r="C119">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A120">
+        <v>109</v>
+      </c>
+      <c r="B120" t="s">
+        <v>121</v>
+      </c>
+      <c r="C120">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A121">
+        <v>110</v>
+      </c>
+      <c r="C121">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A122">
+        <v>111</v>
+      </c>
+      <c r="C122">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A123">
+        <v>112</v>
+      </c>
+      <c r="C123">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A124">
+        <v>113</v>
+      </c>
+      <c r="C124">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A125">
+        <v>114</v>
+      </c>
+      <c r="C125">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A126">
+        <v>115</v>
+      </c>
+      <c r="C126">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A127">
+        <v>116</v>
+      </c>
+      <c r="C127">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A128">
+        <v>117</v>
+      </c>
+      <c r="C128">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A129">
+        <v>118</v>
+      </c>
+      <c r="C129">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A130">
+        <v>119</v>
+      </c>
+      <c r="C130">
         <v>2</v>
       </c>
     </row>

--- a/Excel/bullet.xlsx
+++ b/Excel/bullet.xlsx
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="124">
   <si>
     <t>TypeID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -537,6 +537,14 @@
   </si>
   <si>
     <t>Bullet/Projectiles/item/sadan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bullet/Projectiles/enemy2_attack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bullet/Projectiles/enemy3_attack</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -903,8 +911,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C130"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="I107" sqref="I107"/>
+    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
+      <selection activeCell="B126" sqref="B126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2237,6 +2245,9 @@
       <c r="A121">
         <v>110</v>
       </c>
+      <c r="B121" t="s">
+        <v>122</v>
+      </c>
       <c r="C121">
         <v>2</v>
       </c>
@@ -2245,6 +2256,9 @@
       <c r="A122">
         <v>111</v>
       </c>
+      <c r="B122" t="s">
+        <v>123</v>
+      </c>
       <c r="C122">
         <v>2</v>
       </c>
@@ -2316,7 +2330,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Excel/bullet.xlsx
+++ b/Excel/bullet.xlsx
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="127">
   <si>
     <t>TypeID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -545,6 +545,18 @@
   </si>
   <si>
     <t>Bullet/Projectiles/enemy3_attack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Buff/xukong_skill5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bullet/Projectiles/paipaixiong_skill5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bullet/Projectiles/pake_skill3talent</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -909,10 +921,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C130"/>
+  <dimension ref="A1:C125"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="B126" sqref="B126"/>
+    <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
+      <selection activeCell="C128" sqref="C128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2265,66 +2277,35 @@
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A123">
-        <v>112</v>
+        <v>1502</v>
+      </c>
+      <c r="B123" t="s">
+        <v>124</v>
       </c>
       <c r="C123">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A124">
-        <v>113</v>
+        <v>112</v>
+      </c>
+      <c r="B124" t="s">
+        <v>125</v>
       </c>
       <c r="C124">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A125">
-        <v>114</v>
+        <v>113</v>
+      </c>
+      <c r="B125" t="s">
+        <v>126</v>
       </c>
       <c r="C125">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A126">
-        <v>115</v>
-      </c>
-      <c r="C126">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A127">
-        <v>116</v>
-      </c>
-      <c r="C127">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A128">
-        <v>117</v>
-      </c>
-      <c r="C128">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A129">
-        <v>118</v>
-      </c>
-      <c r="C129">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A130">
-        <v>119</v>
-      </c>
-      <c r="C130">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/bullet.xlsx
+++ b/Excel/bullet.xlsx
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="129">
   <si>
     <t>TypeID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -557,6 +557,14 @@
   </si>
   <si>
     <t>Bullet/Projectiles/pake_skill3talent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Buff/bossxiaojishi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bullet/Projectiles/bossxiaojishi_bullet</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -921,10 +929,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C125"/>
+  <dimension ref="A1:C127"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
-      <selection activeCell="C128" sqref="C128"/>
+    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
+      <selection activeCell="B133" sqref="B133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2308,6 +2316,28 @@
         <v>10</v>
       </c>
     </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A126">
+        <v>1032</v>
+      </c>
+      <c r="B126" t="s">
+        <v>127</v>
+      </c>
+      <c r="C126">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A127">
+        <v>114</v>
+      </c>
+      <c r="B127" t="s">
+        <v>128</v>
+      </c>
+      <c r="C127">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
